--- a/pred_ohlcv/54_21/2019-10-31 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>42222.88540000001</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>39742.4575</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>39742.4575</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>45519.58270000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>45519.58270000001</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -860,7 +860,7 @@
         <v>26475.88622553957</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>38847.80492553957</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>39819.74462553958</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>36141.91302553958</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>36141.91302553958</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>33885.78602553958</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>34969.97802553958</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24969.97802553958</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>24969.97802553958</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>24496.35582553958</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>22585.43622553958</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>31365.58676317399</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>31365.58676317399</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>31366.58676317399</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>31380.40296317399</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>31380.40296317399</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>31370.74706317399</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>31370.74706317399</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>30593.74706317399</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>29330.54726317399</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>29330.54726317399</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3263.457827433916</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3263.457827433916</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2902.325527433916</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2607.899327433916</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2610.497027433916</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2964.355427433916</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3684.810927433916</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>9724.930927433916</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>6987.704727433916</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>16343.72442743392</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>14343.72442743392</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>13140.99722743392</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>42222.88540000001</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>39742.4575</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>39742.4575</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>45519.58270000001</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>45519.58270000001</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>53816.02822553957</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>53816.02822553957</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>53816.02822553957</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>53816.02822553957</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>54111.19242553957</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>26474.88622553957</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>26475.88622553957</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>25012.38602553957</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>39819.74462553958</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>36141.91302553958</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>33885.78602553958</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>24969.97802553958</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>24969.97802553958</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>24496.35582553958</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-319.5218725660828</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-319.5218725660828</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-530.0497725660828</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-195.7347725660828</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>4124.974627433917</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>3298.384627433917</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>3263.457827433916</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>3263.457827433916</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>3263.457827433916</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2902.325527433916</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2607.899327433916</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2610.497027433916</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>2964.355427433916</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>3684.810927433916</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>9724.930927433916</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>16343.72442743392</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
